--- a/utilities/Excel_Sheets/Products/HHOL.xlsx
+++ b/utilities/Excel_Sheets/Products/HHOL.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Regression_Tests" sheetId="8" r:id="rId2"/>
+    <sheet name="Regression" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression_Tests!$A$1:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$M$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$M$71</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="58">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -41,24 +41,12 @@
     <t>Agent</t>
   </si>
   <si>
-    <t>Test_Scenario_Number</t>
-  </si>
-  <si>
     <t>Automation Test Agent</t>
   </si>
   <si>
     <t>California</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
     <t>Test_Summary</t>
   </si>
   <si>
@@ -117,18 +105,6 @@
   </si>
   <si>
     <t>San Jose</t>
-  </si>
-  <si>
-    <t>Number_Beds</t>
-  </si>
-  <si>
-    <t>select_LTC_Include_HNOA_50K_200K_Limit</t>
-  </si>
-  <si>
-    <t>select_LTC_Include_HNOA_1MM_3MM_Limit</t>
-  </si>
-  <si>
-    <t>select_LTC_Include_HNOA_1MM_3MM_Limit_1K_Deduct</t>
   </si>
   <si>
     <t>Arizona</t>
@@ -629,10 +605,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,64 +631,64 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>91436</v>
@@ -739,23 +715,23 @@
     <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
         <v>33018</v>
@@ -796,23 +772,23 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
         <v>32301</v>
@@ -853,23 +829,23 @@
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3">
         <v>85001</v>
@@ -896,23 +872,23 @@
     <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
         <v>32301</v>
@@ -953,23 +929,23 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3">
         <v>33009</v>
@@ -1010,23 +986,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3">
         <v>33402</v>
@@ -1055,23 +1031,23 @@
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
         <v>33018</v>
@@ -1112,23 +1088,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3">
         <v>33009</v>
@@ -1169,23 +1145,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
       </c>
       <c r="C20" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3">
         <v>33402</v>
@@ -1226,23 +1202,23 @@
     </row>
     <row r="22" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3">
         <v>85001</v>
@@ -1271,23 +1247,23 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G24" s="3">
         <v>18901</v>
@@ -1316,23 +1292,23 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G26" s="3">
         <v>99801</v>
@@ -1373,23 +1349,23 @@
     </row>
     <row r="28" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G28" s="3">
         <v>19019</v>
@@ -1430,23 +1406,23 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G30" s="3">
         <v>18901</v>
@@ -1487,23 +1463,23 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G32" s="3">
         <v>19380</v>
@@ -1544,23 +1520,23 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G34" s="3">
         <v>19063</v>
@@ -1601,23 +1577,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
       <c r="C36" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G36" s="3">
         <v>18054</v>
@@ -1646,23 +1622,23 @@
     </row>
     <row r="38" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4">
         <v>2</v>
       </c>
       <c r="C38" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G38" s="3">
         <v>85001</v>
@@ -1691,23 +1667,23 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
       </c>
       <c r="C40" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3">
         <v>18901</v>
@@ -1736,23 +1712,23 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
       </c>
       <c r="C42" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G42" s="3">
         <v>99801</v>
@@ -1793,23 +1769,23 @@
     </row>
     <row r="44" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
       </c>
       <c r="C44" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G44" s="3">
         <v>19019</v>
@@ -1850,23 +1826,23 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B46" s="4">
         <v>2</v>
       </c>
       <c r="C46" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G46" s="3">
         <v>18901</v>
@@ -1907,23 +1883,23 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4">
         <v>2</v>
       </c>
       <c r="C48" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G48" s="3">
         <v>19380</v>
@@ -1964,23 +1940,23 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
       </c>
       <c r="C50" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G50" s="3">
         <v>19063</v>
@@ -2021,23 +1997,23 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4">
         <v>2</v>
       </c>
       <c r="C52" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G52" s="3">
         <v>18054</v>
@@ -2078,23 +2054,23 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
       </c>
       <c r="C54" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G54" s="3">
         <v>91436</v>
@@ -2123,23 +2099,23 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
       </c>
       <c r="C56" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G56" s="3">
         <v>95002</v>
@@ -2180,23 +2156,23 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B58" s="4">
         <v>2</v>
       </c>
       <c r="C58" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>91436</v>
@@ -2225,23 +2201,23 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4">
         <v>2</v>
       </c>
       <c r="C60" s="6">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43262</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G60" s="3">
         <v>95002</v>
@@ -2438,13 +2414,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22644E77-FC0A-47A4-9DB5-3D708939BD8E}">
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2452,1299 +2428,1488 @@
     <col min="1" max="1" width="73.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="96.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="96.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>91436</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G4" s="3">
+        <v>33018</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C5" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>32301</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3">
+        <v>85001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>32301</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>33009</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>33402</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>33018</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>33009</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>33402</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
+        <v>85001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18901</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="G15" s="3">
+        <v>99801</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="G16" s="3">
+        <v>19019</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>18901</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>19380</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>19063</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18054</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3">
+        <v>85001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3">
+        <v>18901</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43040</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3">
+        <v>99801</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3">
+        <v>19019</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
+        <v>18901</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J25" s="5">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3">
+        <v>19380</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="5">
+        <v>5</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <v>19063</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3">
+        <v>18054</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J28" s="5">
+        <v>5</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3">
-        <v>33018</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43040</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G29" s="3">
+        <v>91436</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J29" s="5">
+        <v>5</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3">
-        <v>32301</v>
-      </c>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G30" s="3">
+        <v>95002</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J30" s="5">
+        <v>5</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="3">
-        <v>33009</v>
-      </c>
-      <c r="L4" s="5">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G31" s="3">
+        <v>91436</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="3">
-        <v>33402</v>
-      </c>
-      <c r="L5" s="5">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43040</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="3">
-        <v>33018</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>43040</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3">
-        <v>32301</v>
-      </c>
-      <c r="L7" s="3">
-        <v>6</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3">
-        <v>33009</v>
-      </c>
-      <c r="L8" s="5">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="3">
-        <v>33402</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43040</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="3">
-        <v>85001</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3">
-        <v>18901</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3">
-        <v>99801</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3">
-        <v>19019</v>
-      </c>
-      <c r="L13" s="5">
-        <v>5</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="3">
-        <v>18901</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3">
-        <v>19380</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="3">
-        <v>19063</v>
-      </c>
-      <c r="L16" s="5">
-        <v>5</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3">
-        <v>18054</v>
-      </c>
-      <c r="L17" s="5">
-        <v>5</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6">
-        <v>43040</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="3">
-        <v>85001</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3">
-        <v>18901</v>
-      </c>
-      <c r="L19" s="5">
-        <v>5</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="3">
-        <v>99801</v>
-      </c>
-      <c r="L20" s="5">
-        <v>5</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="3">
-        <v>19019</v>
-      </c>
-      <c r="L21" s="5">
-        <v>5</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="3">
-        <v>18901</v>
-      </c>
-      <c r="L22" s="5">
-        <v>5</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="3">
-        <v>19380</v>
-      </c>
-      <c r="L23" s="5">
-        <v>5</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="3">
-        <v>19063</v>
-      </c>
-      <c r="L24" s="5">
-        <v>5</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="3">
-        <v>18054</v>
-      </c>
-      <c r="L25" s="5">
-        <v>5</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>91436</v>
-      </c>
-      <c r="L26" s="5">
-        <v>5</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="G32" s="3">
         <v>95002</v>
       </c>
-      <c r="L27" s="5">
-        <v>5</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="3">
-        <v>91436</v>
-      </c>
-      <c r="L28" s="5">
-        <v>5</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="4">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6">
-        <v>43041</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>95002</v>
-      </c>
-      <c r="L29" s="5">
-        <v>5</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
+      <c r="H32" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J32" s="5">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:M43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/HHOL.xlsx
+++ b/utilities/Excel_Sheets/Products/HHOL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -605,10 +605,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>91436</v>
       </c>
       <c r="H2" s="5">
-        <v>1000000</v>
+        <v>250000</v>
       </c>
       <c r="I2" s="5">
-        <v>1000000</v>
+        <v>250000</v>
       </c>
       <c r="J2" s="5">
         <v>5</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C18" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C20" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C22" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C24" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C26" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>3</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C28" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>3</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C30" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>3</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C32" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C34" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>3</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C36" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>3</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C38" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>3</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C40" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>3</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C42" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C44" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C46" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>3</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="C48" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C50" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>3</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C52" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C54" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>3</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C56" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>3</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C58" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C60" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>3</v>
@@ -2417,10 +2417,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22644E77-FC0A-47A4-9DB5-3D708939BD8E}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43332</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -2533,8 +2533,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ref="C4:C32" ca="1" si="0">TODAY()</f>
+        <v>43332</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -2575,8 +2575,8 @@
         <v>2</v>
       </c>
       <c r="C5" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2617,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2659,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -2701,8 +2701,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -2743,8 +2743,8 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -2785,8 +2785,8 @@
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -2827,8 +2827,8 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -2869,8 +2869,8 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
@@ -2911,8 +2911,8 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
@@ -2953,8 +2953,8 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
@@ -2995,8 +2995,8 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
@@ -3037,8 +3037,8 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -3079,8 +3079,8 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3121,8 @@
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
@@ -3163,8 +3163,8 @@
         <v>1</v>
       </c>
       <c r="C19" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>3</v>
@@ -3205,8 +3205,8 @@
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
@@ -3247,8 +3247,8 @@
         <v>2</v>
       </c>
       <c r="C21" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
@@ -3289,8 +3289,8 @@
         <v>2</v>
       </c>
       <c r="C22" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -3331,8 +3331,8 @@
         <v>2</v>
       </c>
       <c r="C23" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -3373,8 +3373,8 @@
         <v>2</v>
       </c>
       <c r="C24" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
@@ -3415,8 +3415,8 @@
         <v>2</v>
       </c>
       <c r="C25" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
@@ -3457,8 +3457,8 @@
         <v>2</v>
       </c>
       <c r="C26" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>3</v>
@@ -3499,8 +3499,8 @@
         <v>2</v>
       </c>
       <c r="C27" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>3</v>
@@ -3541,8 +3541,8 @@
         <v>2</v>
       </c>
       <c r="C28" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>3</v>
@@ -3583,8 +3583,8 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3625,8 @@
         <v>2</v>
       </c>
       <c r="C30" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>3</v>
@@ -3667,8 +3667,8 @@
         <v>2</v>
       </c>
       <c r="C31" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>3</v>
@@ -3709,8 +3709,8 @@
         <v>2</v>
       </c>
       <c r="C32" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43332</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
